--- a/Data/there.xlsx
+++ b/Data/there.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>&gt;hsa-miR-148a-3p</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>ccaauauuacugugcugcuuua</t>
+  </si>
+  <si>
+    <t>&gt;375-3p</t>
+  </si>
+  <si>
+    <t>uuuguucguuuggcuuaaguua</t>
+  </si>
+  <si>
+    <t>&gt;181d-5p</t>
+  </si>
+  <si>
+    <t>ccaccgggggaugaaugucac</t>
   </si>
 </sst>
 </file>
@@ -294,7 +306,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +484,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -635,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -643,6 +661,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -967,7 +989,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,16 +1041,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1067,7 +1089,7 @@
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1080,7 +1102,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1093,7 +1115,7 @@
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1119,7 +1141,7 @@
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1132,7 +1154,7 @@
       <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1145,7 +1167,7 @@
       <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1158,7 +1180,7 @@
       <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1171,7 +1193,7 @@
       <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1184,7 +1206,7 @@
       <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1197,7 +1219,7 @@
       <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1210,7 +1232,7 @@
       <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1236,13 +1258,33 @@
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
